--- a/public/y.xlsx
+++ b/public/y.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\javascript\excel\describe\excel-template\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8E986A-A4E0-4406-88B5-30BF19DF3ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9084F5B-A321-4457-864B-7BC6F778EC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="6105" windowWidth="21600" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24360" yWindow="1608" windowWidth="21600" windowHeight="8028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
